--- a/docs/ru/cases/performance-testing/assets/cpu_testing.xlsx
+++ b/docs/ru/cases/performance-testing/assets/cpu_testing.xlsx
@@ -1,12 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="21000" windowHeight="11250"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -22,7 +38,7 @@
     <t>Значение</t>
   </si>
   <si>
-    <t>Седнее значение</t>
+    <t>Среднее значение</t>
   </si>
   <si>
     <t>CPU Speed (events/s)</t>
@@ -70,38 +86,205 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="25">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="11.0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -115,9 +298,201 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
-    <border/>
+  <borders count="31">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -128,6 +503,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -139,27 +516,35 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -169,6 +554,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -180,6 +566,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -188,9 +576,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -199,9 +589,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -216,6 +608,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -224,9 +617,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -235,6 +630,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -243,9 +641,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -254,9 +654,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -271,6 +673,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -282,6 +685,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -293,19 +698,24 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -315,6 +725,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -326,6 +737,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -340,6 +753,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -354,6 +768,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -362,100 +777,593 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -645,28 +1553,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.0"/>
-    <col customWidth="1" min="3" max="3" width="7.5"/>
-    <col customWidth="1" min="4" max="4" width="7.13"/>
-    <col customWidth="1" min="5" max="5" width="6.38"/>
-    <col customWidth="1" min="6" max="6" width="6.25"/>
-    <col customWidth="1" min="7" max="7" width="6.5"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="3" max="3" width="7.5047619047619" customWidth="1"/>
+    <col min="4" max="4" width="7.13333333333333" customWidth="1"/>
+    <col min="5" max="5" width="6.38095238095238" customWidth="1"/>
+    <col min="6" max="6" width="6.24761904761905" customWidth="1"/>
+    <col min="7" max="7" width="6.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,106 +1596,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="8"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="20" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="8"/>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="20" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8">
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="8"/>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="25" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4"/>
@@ -792,140 +1704,140 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="27" t="s">
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="32"/>
-      <c r="B11" s="28" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="28"/>
+      <c r="B11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="27" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="32"/>
-      <c r="B13" s="28" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="28"/>
+      <c r="B13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="27" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="28" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="28"/>
+      <c r="B15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="27" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="32"/>
-      <c r="B17" s="28" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:8">
+      <c r="A17" s="28"/>
+      <c r="B17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="27" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
+      <c r="A18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="32"/>
-      <c r="B19" s="21" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="28"/>
+      <c r="B19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="25" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4"/>
@@ -934,62 +1846,69 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="27" t="s">
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="32"/>
-      <c r="B22" s="28" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
+      <c r="A22" s="28"/>
+      <c r="B22" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="27" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
+      <c r="A23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24">
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="7"/>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -997,16 +1916,10 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>